--- a/output/google_maps_data_Toko_Oleh_oleh_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Toko_Oleh_oleh_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Toko+Oleh+oleh+Kota+Yogyakarta/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,21 +520,20 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E3" t="n">
         <v>4.5</v>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -563,21 +556,20 @@
           <t>0857-2590-7688</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="E4" t="n">
         <v>4.5</v>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh+Oleh+Jogja/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582633dec295:0x8d7cddebc8d3b8f5!8m2!3d-7.793171!4d110.3655261!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11g6xr9m0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh+Oleh+Jogja/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582633dec295:0x8d7cddebc8d3b8f5!8m2!3d-7.793171!4d110.3655261!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11g6xr9m0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -596,21 +588,20 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="E5" t="n">
         <v>5</v>
       </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Pojok+Oleh-oleh/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57a7905a7b4d:0x9bd253f5b3f7e6d9!8m2!3d-7.7977717!4d110.3654242!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNjV1F0V0RoM1JSQULgAQD6AQQIABAv!16s%2Fg%2F11t5_0ywjp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Pojok+Oleh-oleh/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57a7905a7b4d:0x9bd253f5b3f7e6d9!8m2!3d-7.7977717!4d110.3654242!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNjV1F0V0RoM1JSQULgAQD6AQQIABAv!16s%2Fg%2F11t5_0ywjp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -633,21 +624,20 @@
           <t>0811-2651-692</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="E6" t="n">
         <v>4.8</v>
       </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh-Oleh+Jogja+Istimewa+Pulpa/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a590120aa7637:0xd86920e9d406f52b!8m2!3d-7.7867027!4d110.3664817!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F11khkp72bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh-Oleh+Jogja+Istimewa+Pulpa/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a590120aa7637:0xd86920e9d406f52b!8m2!3d-7.7867027!4d110.3664817!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F11khkp72bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -674,21 +664,20 @@
           <t>0817-9438-740</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="E7" t="n">
         <v>4.7</v>
       </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -715,21 +704,20 @@
           <t>0852-8196-8886</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="E8" t="n">
         <v>5</v>
       </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Pathok+086+Jaya+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a598a34b2dd7b:0x6255508db431c7f3!8m2!3d-7.7976244!4d110.3658617!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11qlzkzh5g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Pathok+086+Jaya+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a598a34b2dd7b:0x6255508db431c7f3!8m2!3d-7.7976244!4d110.3658617!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11qlzkzh5g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -752,21 +740,20 @@
           <t>(0274) 562985</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="E9" t="n">
         <v>4.5</v>
       </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58289c4c7c19:0x90bf3e3bd6d7021b!8m2!3d-7.7927108!4d110.3665766!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGGSAQ5zb3V2ZW5pcl9zdG9yZeABAA!16s%2Fg%2F1pzr_74yh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58289c4c7c19:0x90bf3e3bd6d7021b!8m2!3d-7.7927108!4d110.3665766!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGGSAQ5zb3V2ZW5pcl9zdG9yZeABAA!16s%2Fg%2F1pzr_74yh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -793,21 +780,20 @@
           <t>(0274) 588524</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="E10" t="n">
         <v>4.6</v>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hamzah+Batik+-+Toko+Batik+dan+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5788f761d221:0x6e56f49ab472d198!8m2!3d-7.7991629!4d110.3647534!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tf2pnpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hamzah+Batik+-+Toko+Batik+dan+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5788f761d221:0x6e56f49ab472d198!8m2!3d-7.7991629!4d110.3647534!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tf2pnpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>12 menit lalu</t>
         </is>
@@ -834,21 +820,20 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="E11" t="n">
         <v>4.7</v>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -871,21 +856,20 @@
           <t>0812-7318-3131</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="E12" t="n">
         <v>4.4</v>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%22TOKO+KITA+2%22+Oleh-Oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a579423539ab1:0x700fc2d009769e7a!8m2!3d-7.8013908!4d110.3620519!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEGYmFrZXJ54AEA!16s%2Fg%2F11t8kcj0rs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%22TOKO+KITA+2%22+Oleh-Oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a579423539ab1:0x700fc2d009769e7a!8m2!3d-7.8013908!4d110.3620519!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEGYmFrZXJ54AEA!16s%2Fg%2F11t8kcj0rs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -908,21 +892,20 @@
           <t>(0274) 551888</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="E13" t="n">
         <v>4.3</v>
       </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dagelan+Pusat+Oleh-Oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58262dad55df:0xded076c1f9d1ac2e!8m2!3d-7.7936929!4d110.3658961!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F11bzsd7_x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dagelan+Pusat+Oleh-Oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58262dad55df:0xded076c1f9d1ac2e!8m2!3d-7.7936929!4d110.3658961!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F11bzsd7_x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -945,21 +928,20 @@
           <t>(0274) 377295</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="E14" t="n">
         <v>4.4</v>
       </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Aroma+Yogyakarta/@-7.8069491,110.3513379,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a579a2bd999b9:0x5c909ec051c8375d!8m2!3d-7.8069491!4d110.3693623!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgETYmFraW5nX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F1hc18b3xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Aroma+Yogyakarta/@-7.8069491,110.3513379,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a579a2bd999b9:0x5c909ec051c8375d!8m2!3d-7.8069491!4d110.3693623!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgETYmFraW5nX3N1cHBseV9zdG9yZeABAA!16s%2Fg%2F1hc18b3xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -986,21 +968,20 @@
           <t>0813-2073-6867</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="E15" t="n">
         <v>4.8</v>
       </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Podjok+Wisata/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5961c2969963:0x73fedf7c39372a74!8m2!3d-7.7864943!4d110.3668374!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11h00d0yrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Podjok+Wisata/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5961c2969963:0x73fedf7c39372a74!8m2!3d-7.7864943!4d110.3668374!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11h00d0yrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1023,21 +1004,20 @@
           <t>(0274) 588143</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="E16" t="n">
         <v>4.6</v>
       </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Camilan+Dan+Snack+Bu+Wiwik+Yogyakarta/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582bcd6e5c51:0xfb2c44dee37ba248!8m2!3d-7.7929786!4d110.3733971!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgENZ3JvY2VyeV9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaFoyRmhNM0ZSUlJBQuABAPoBBQj7AhA3!16s%2Fg%2F1hm2sny6v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Camilan+Dan+Snack+Bu+Wiwik+Yogyakarta/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582bcd6e5c51:0xfb2c44dee37ba248!8m2!3d-7.7929786!4d110.3733971!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgENZ3JvY2VyeV9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaFoyRmhNM0ZSUlJBQuABAPoBBQj7AhA3!16s%2Fg%2F1hm2sny6v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1060,21 +1040,20 @@
           <t>0812-1585-6232</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="E17" t="n">
         <v>4.4</v>
       </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Raden+Oleh-Oleh+Jogja+-+Cabang+Ahmad+Dahlan/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578040e683b9:0xdca6ec59bd515a23!8m2!3d-7.8012427!4d110.363371!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEGYmFrZXJ54AEA!16s%2Fg%2F11jzrdp0qs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Raden+Oleh-Oleh+Jogja+-+Cabang+Ahmad+Dahlan/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578040e683b9:0xdca6ec59bd515a23!8m2!3d-7.8012427!4d110.363371!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEGYmFrZXJ54AEA!16s%2Fg%2F11jzrdp0qs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1097,21 +1076,20 @@
           <t>(0274) 379625</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="E18" t="n">
         <v>4.5</v>
       </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Batik+Wisnu/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5785992a1441:0x601fc1a572ff7d09!8m2!3d-7.8035408!4d110.3665075!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOY2xvdGhpbmdfc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRlbGt0WjNCQlJSQULgAQD6AQQIABBI!16s%2Fg%2F1pzq3l8p0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Batik+Wisnu/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5785992a1441:0x601fc1a572ff7d09!8m2!3d-7.8035408!4d110.3665075!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOY2xvdGhpbmdfc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRlbGt0WjNCQlJSQULgAQD6AQQIABBI!16s%2Fg%2F1pzq3l8p0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>30 menit lalu</t>
         </is>
@@ -1130,21 +1108,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="E19" t="n">
         <v>4.7</v>
       </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Raminten+Souvenir/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57de3a5ced21:0x39c5fe038b0f2a37!8m2!3d-7.7991633!4d110.364771!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktNWFV5WTA1UkVBReABAPoBBAgAEEE!16s%2Fg%2F11gjzmgvjc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Raminten+Souvenir/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57de3a5ced21:0x39c5fe038b0f2a37!8m2!3d-7.7991633!4d110.364771!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktNWFV5WTA1UkVBReABAPoBBAgAEEE!16s%2Fg%2F11gjzmgvjc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1167,21 +1144,20 @@
           <t>0818-1888-8863</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="E20" t="n">
         <v>4.6</v>
       </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Wong+Keraton/@-7.7909742,110.33537,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5818b14eeda1:0x4cf80887f0f34dc1!8m2!3d-7.7909742!4d110.3533944!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11gfgm6x56?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Wong+Keraton/@-7.7909742,110.33537,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5818b14eeda1:0x4cf80887f0f34dc1!8m2!3d-7.7909742!4d110.3533944!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11gfgm6x56?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1204,21 +1180,20 @@
           <t>(0274) 373371</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="E21" t="n">
         <v>4.3</v>
       </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Prapanca+Batik+dan+Kerajinan/@-7.8021258,110.346382,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578f3b1116ad:0x295a9fb698e403e4!8m2!3d-7.8021258!4d110.3644064!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F1tdlrdgr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Prapanca+Batik+dan+Kerajinan/@-7.8021258,110.346382,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a578f3b1116ad:0x295a9fb698e403e4!8m2!3d-7.8021258!4d110.3644064!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F1tdlrdgr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
